--- a/Assets/nth/signin/Nick phụ nth (1).xlsx
+++ b/Assets/nth/signin/Nick phụ nth (1).xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="763">
   <si>
     <t>TÚ</t>
   </si>
@@ -1251,6 +1251,9 @@
     <t>ken2660505</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
     <t>ken2660506</t>
   </si>
   <si>
@@ -1524,9 +1527,6 @@
     <t>ken2660615</t>
   </si>
   <si>
-    <t>ken2660616</t>
-  </si>
-  <si>
     <t>ken2660617</t>
   </si>
   <si>
@@ -1588,6 +1588,9 @@
   </si>
   <si>
     <t>ken2660637</t>
+  </si>
+  <si>
+    <t>done.</t>
   </si>
   <si>
     <t>ken2660639</t>
@@ -9248,10 +9251,13 @@
         <v>5</v>
       </c>
       <c r="C391" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D391" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E391" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="392">
@@ -9262,10 +9268,13 @@
         <v>5</v>
       </c>
       <c r="C392" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D392" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E392" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="393">
@@ -9276,10 +9285,13 @@
         <v>5</v>
       </c>
       <c r="C393" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D393" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E393" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="394">
@@ -9290,10 +9302,13 @@
         <v>5</v>
       </c>
       <c r="C394" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D394" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E394" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="395">
@@ -9304,10 +9319,13 @@
         <v>5</v>
       </c>
       <c r="C395" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D395" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E395" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="396">
@@ -9318,10 +9336,13 @@
         <v>5</v>
       </c>
       <c r="C396" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D396" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E396" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="397">
@@ -9332,10 +9353,13 @@
         <v>5</v>
       </c>
       <c r="C397" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D397" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E397" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="398">
@@ -9346,10 +9370,13 @@
         <v>5</v>
       </c>
       <c r="C398" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D398" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E398" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="399">
@@ -9360,10 +9387,13 @@
         <v>5</v>
       </c>
       <c r="C399" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D399" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E399" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="400">
@@ -9374,10 +9404,13 @@
         <v>5</v>
       </c>
       <c r="C400" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D400" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E400" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="401">
@@ -9388,7 +9421,7 @@
         <v>5</v>
       </c>
       <c r="C401" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D401" s="8" t="s">
         <v>8</v>
@@ -9402,7 +9435,7 @@
         <v>5</v>
       </c>
       <c r="C402" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D402" s="8" t="s">
         <v>8</v>
@@ -9416,7 +9449,7 @@
         <v>5</v>
       </c>
       <c r="C403" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D403" s="8" t="s">
         <v>8</v>
@@ -9430,7 +9463,7 @@
         <v>5</v>
       </c>
       <c r="C404" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D404" s="8" t="s">
         <v>8</v>
@@ -9444,7 +9477,7 @@
         <v>5</v>
       </c>
       <c r="C405" s="9">
-        <v>26.0</v>
+        <v>44.0</v>
       </c>
       <c r="D405" s="8" t="s">
         <v>8</v>
@@ -9458,15 +9491,18 @@
         <v>5</v>
       </c>
       <c r="C406" s="9">
-        <v>26.0</v>
+        <v>44.0</v>
       </c>
       <c r="D406" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="F406" s="10" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B407" s="7" t="s">
         <v>5</v>
@@ -9480,7 +9516,7 @@
     </row>
     <row r="408">
       <c r="A408" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B408" s="7" t="s">
         <v>5</v>
@@ -9494,7 +9530,7 @@
     </row>
     <row r="409">
       <c r="A409" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B409" s="7" t="s">
         <v>5</v>
@@ -9508,7 +9544,7 @@
     </row>
     <row r="410">
       <c r="A410" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B410" s="7" t="s">
         <v>5</v>
@@ -9522,7 +9558,7 @@
     </row>
     <row r="411">
       <c r="A411" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B411" s="7" t="s">
         <v>5</v>
@@ -9536,7 +9572,7 @@
     </row>
     <row r="412">
       <c r="A412" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B412" s="7" t="s">
         <v>5</v>
@@ -9553,7 +9589,7 @@
     </row>
     <row r="413">
       <c r="A413" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B413" s="7" t="s">
         <v>5</v>
@@ -9570,7 +9606,7 @@
     </row>
     <row r="414">
       <c r="A414" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B414" s="7" t="s">
         <v>5</v>
@@ -9587,7 +9623,7 @@
     </row>
     <row r="415">
       <c r="A415" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B415" s="7" t="s">
         <v>5</v>
@@ -9604,7 +9640,7 @@
     </row>
     <row r="416">
       <c r="A416" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B416" s="7" t="s">
         <v>5</v>
@@ -9621,7 +9657,7 @@
     </row>
     <row r="417">
       <c r="A417" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B417" s="7" t="s">
         <v>5</v>
@@ -9638,7 +9674,7 @@
     </row>
     <row r="418">
       <c r="A418" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B418" s="7" t="s">
         <v>5</v>
@@ -9655,7 +9691,7 @@
     </row>
     <row r="419">
       <c r="A419" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B419" s="7" t="s">
         <v>5</v>
@@ -9672,7 +9708,7 @@
     </row>
     <row r="420">
       <c r="A420" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B420" s="7" t="s">
         <v>5</v>
@@ -9689,7 +9725,7 @@
     </row>
     <row r="421">
       <c r="A421" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B421" s="7" t="s">
         <v>5</v>
@@ -9706,7 +9742,7 @@
     </row>
     <row r="422">
       <c r="A422" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B422" s="7" t="s">
         <v>5</v>
@@ -9723,7 +9759,7 @@
     </row>
     <row r="423">
       <c r="A423" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B423" s="7" t="s">
         <v>5</v>
@@ -9740,13 +9776,13 @@
     </row>
     <row r="424">
       <c r="A424" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B424" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C424" s="9">
-        <v>26.0</v>
+        <v>44.0</v>
       </c>
       <c r="D424" s="8" t="s">
         <v>8</v>
@@ -9754,7 +9790,7 @@
     </row>
     <row r="425">
       <c r="A425" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B425" s="7" t="s">
         <v>5</v>
@@ -9768,7 +9804,7 @@
     </row>
     <row r="426">
       <c r="A426" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B426" s="7" t="s">
         <v>5</v>
@@ -9785,7 +9821,7 @@
     </row>
     <row r="427">
       <c r="A427" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B427" s="7" t="s">
         <v>5</v>
@@ -9802,7 +9838,7 @@
     </row>
     <row r="428">
       <c r="A428" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B428" s="7" t="s">
         <v>5</v>
@@ -9819,7 +9855,7 @@
     </row>
     <row r="429">
       <c r="A429" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B429" s="7" t="s">
         <v>5</v>
@@ -9836,7 +9872,7 @@
     </row>
     <row r="430">
       <c r="A430" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B430" s="7" t="s">
         <v>5</v>
@@ -9853,7 +9889,7 @@
     </row>
     <row r="431">
       <c r="A431" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B431" s="7" t="s">
         <v>5</v>
@@ -9870,7 +9906,7 @@
     </row>
     <row r="432">
       <c r="A432" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B432" s="7" t="s">
         <v>5</v>
@@ -9887,7 +9923,7 @@
     </row>
     <row r="433">
       <c r="A433" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B433" s="7" t="s">
         <v>5</v>
@@ -9904,7 +9940,7 @@
     </row>
     <row r="434">
       <c r="A434" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B434" s="7" t="s">
         <v>5</v>
@@ -9921,7 +9957,7 @@
     </row>
     <row r="435">
       <c r="A435" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B435" s="7" t="s">
         <v>5</v>
@@ -9938,7 +9974,7 @@
     </row>
     <row r="436">
       <c r="A436" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B436" s="7" t="s">
         <v>5</v>
@@ -9955,7 +9991,7 @@
     </row>
     <row r="437">
       <c r="A437" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B437" s="7" t="s">
         <v>5</v>
@@ -9972,7 +10008,7 @@
     </row>
     <row r="438">
       <c r="A438" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B438" s="7" t="s">
         <v>5</v>
@@ -9989,7 +10025,7 @@
     </row>
     <row r="439">
       <c r="A439" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B439" s="7" t="s">
         <v>5</v>
@@ -10006,7 +10042,7 @@
     </row>
     <row r="440">
       <c r="A440" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B440" s="7" t="s">
         <v>5</v>
@@ -10023,7 +10059,7 @@
     </row>
     <row r="441">
       <c r="A441" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B441" s="7" t="s">
         <v>5</v>
@@ -10040,7 +10076,7 @@
     </row>
     <row r="442">
       <c r="A442" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B442" s="7" t="s">
         <v>5</v>
@@ -10057,7 +10093,7 @@
     </row>
     <row r="443">
       <c r="A443" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B443" s="7" t="s">
         <v>5</v>
@@ -10074,7 +10110,7 @@
     </row>
     <row r="444">
       <c r="A444" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B444" s="7" t="s">
         <v>5</v>
@@ -10091,7 +10127,7 @@
     </row>
     <row r="445">
       <c r="A445" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B445" s="7" t="s">
         <v>5</v>
@@ -10108,7 +10144,7 @@
     </row>
     <row r="446">
       <c r="A446" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B446" s="7" t="s">
         <v>5</v>
@@ -10125,7 +10161,7 @@
     </row>
     <row r="447">
       <c r="A447" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B447" s="7" t="s">
         <v>5</v>
@@ -10142,7 +10178,7 @@
     </row>
     <row r="448">
       <c r="A448" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B448" s="7" t="s">
         <v>5</v>
@@ -10159,7 +10195,7 @@
     </row>
     <row r="449">
       <c r="A449" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B449" s="7" t="s">
         <v>5</v>
@@ -10176,7 +10212,7 @@
     </row>
     <row r="450">
       <c r="A450" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B450" s="7" t="s">
         <v>5</v>
@@ -10193,7 +10229,7 @@
     </row>
     <row r="451">
       <c r="A451" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B451" s="7" t="s">
         <v>5</v>
@@ -10210,7 +10246,7 @@
     </row>
     <row r="452">
       <c r="A452" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B452" s="7" t="s">
         <v>5</v>
@@ -10227,7 +10263,7 @@
     </row>
     <row r="453">
       <c r="A453" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B453" s="7" t="s">
         <v>5</v>
@@ -10244,7 +10280,7 @@
     </row>
     <row r="454">
       <c r="A454" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B454" s="7" t="s">
         <v>5</v>
@@ -10261,7 +10297,7 @@
     </row>
     <row r="455">
       <c r="A455" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B455" s="7" t="s">
         <v>5</v>
@@ -10278,7 +10314,7 @@
     </row>
     <row r="456">
       <c r="A456" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B456" s="7" t="s">
         <v>5</v>
@@ -10295,7 +10331,7 @@
     </row>
     <row r="457">
       <c r="A457" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B457" s="7" t="s">
         <v>5</v>
@@ -10312,7 +10348,7 @@
     </row>
     <row r="458">
       <c r="A458" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B458" s="7" t="s">
         <v>5</v>
@@ -10329,7 +10365,7 @@
     </row>
     <row r="459">
       <c r="A459" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B459" s="7" t="s">
         <v>5</v>
@@ -10346,7 +10382,7 @@
     </row>
     <row r="460">
       <c r="A460" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B460" s="7" t="s">
         <v>5</v>
@@ -10363,7 +10399,7 @@
     </row>
     <row r="461">
       <c r="A461" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B461" s="7" t="s">
         <v>5</v>
@@ -10380,7 +10416,7 @@
     </row>
     <row r="462">
       <c r="A462" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B462" s="7" t="s">
         <v>5</v>
@@ -10394,7 +10430,7 @@
     </row>
     <row r="463">
       <c r="A463" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B463" s="7" t="s">
         <v>5</v>
@@ -10408,7 +10444,7 @@
     </row>
     <row r="464">
       <c r="A464" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B464" s="7" t="s">
         <v>5</v>
@@ -10425,7 +10461,7 @@
     </row>
     <row r="465">
       <c r="A465" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B465" s="7" t="s">
         <v>5</v>
@@ -10442,7 +10478,7 @@
     </row>
     <row r="466">
       <c r="A466" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B466" s="7" t="s">
         <v>5</v>
@@ -10459,7 +10495,7 @@
     </row>
     <row r="467">
       <c r="A467" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B467" s="7" t="s">
         <v>5</v>
@@ -10476,7 +10512,7 @@
     </row>
     <row r="468">
       <c r="A468" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B468" s="7" t="s">
         <v>5</v>
@@ -10493,7 +10529,7 @@
     </row>
     <row r="469">
       <c r="A469" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B469" s="7" t="s">
         <v>5</v>
@@ -10510,7 +10546,7 @@
     </row>
     <row r="470">
       <c r="A470" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B470" s="7" t="s">
         <v>5</v>
@@ -10527,7 +10563,7 @@
     </row>
     <row r="471">
       <c r="A471" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B471" s="7" t="s">
         <v>5</v>
@@ -10544,7 +10580,7 @@
     </row>
     <row r="472">
       <c r="A472" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B472" s="7" t="s">
         <v>5</v>
@@ -10561,7 +10597,7 @@
     </row>
     <row r="473">
       <c r="A473" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B473" s="7" t="s">
         <v>5</v>
@@ -10578,7 +10614,7 @@
     </row>
     <row r="474">
       <c r="A474" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B474" s="7" t="s">
         <v>5</v>
@@ -10595,7 +10631,7 @@
     </row>
     <row r="475">
       <c r="A475" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B475" s="7" t="s">
         <v>5</v>
@@ -10612,7 +10648,7 @@
     </row>
     <row r="476">
       <c r="A476" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B476" s="7" t="s">
         <v>5</v>
@@ -10629,7 +10665,7 @@
     </row>
     <row r="477">
       <c r="A477" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B477" s="7" t="s">
         <v>5</v>
@@ -10639,11 +10675,14 @@
       </c>
       <c r="D477" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E477" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B478" s="7" t="s">
         <v>5</v>
@@ -10653,11 +10692,14 @@
       </c>
       <c r="D478" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E478" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B479" s="7" t="s">
         <v>5</v>
@@ -10667,11 +10709,14 @@
       </c>
       <c r="D479" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E479" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B480" s="7" t="s">
         <v>5</v>
@@ -10681,11 +10726,14 @@
       </c>
       <c r="D480" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E480" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B481" s="7" t="s">
         <v>5</v>
@@ -10695,11 +10743,14 @@
       </c>
       <c r="D481" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E481" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B482" s="7" t="s">
         <v>5</v>
@@ -10709,11 +10760,14 @@
       </c>
       <c r="D482" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E482" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B483" s="7" t="s">
         <v>5</v>
@@ -10723,11 +10777,14 @@
       </c>
       <c r="D483" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E483" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B484" s="7" t="s">
         <v>5</v>
@@ -10737,11 +10794,14 @@
       </c>
       <c r="D484" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E484" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B485" s="7" t="s">
         <v>5</v>
@@ -10751,591 +10811,717 @@
       </c>
       <c r="D485" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E485" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B486" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C486" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D486" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E486" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B487" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C487" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D487" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E487" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B488" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C488" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D488" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E488" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B489" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C489" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D489" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E489" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B490" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C490" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D490" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E490" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B491" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C491" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D491" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E491" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B492" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C492" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D492" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E492" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B493" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C493" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D493" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E493" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B494" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C494" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D494" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E494" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B495" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C495" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D495" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E495" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B496" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C496" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D496" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E496" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B497" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C497" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D497" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E497" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B498" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C498" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D498" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E498" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B499" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C499" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D499" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E499" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B500" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C500" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D500" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E500" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B501" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C501" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D501" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E501" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B502" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C502" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D502" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E502" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B503" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C503" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D503" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E503" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B504" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C504" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D504" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E504" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B505" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C505" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D505" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E505" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B506" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C506" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D506" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E506" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B507" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C507" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D507" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E507" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B508" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C508" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D508" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E508" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B509" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C509" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D509" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E509" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B510" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C510" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D510" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E510" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B511" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C511" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D511" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E511" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B512" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C512" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D512" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E512" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B513" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C513" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D513" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E513" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B514" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C514" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D514" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E514" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B515" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C515" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D515" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E515" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B516" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C516" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D516" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E516" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B517" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C517" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D517" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E517" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B518" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C518" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D518" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E518" s="10" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B519" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C519" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D519" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E519" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B520" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C520" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D520" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E520" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B521" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C521" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D521" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E521" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B522" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C522" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D522" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E522" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B523" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C523" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D523" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E523" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B524" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C524" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D524" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E524" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B525" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C525" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D525" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E525" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B526" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C526" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D526" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="E526" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B527" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C527" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D527" s="8" t="s">
         <v>8</v>
@@ -11343,13 +11529,13 @@
     </row>
     <row r="528">
       <c r="A528" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B528" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C528" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D528" s="8" t="s">
         <v>8</v>
@@ -11357,13 +11543,13 @@
     </row>
     <row r="529">
       <c r="A529" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B529" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C529" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D529" s="8" t="s">
         <v>8</v>
@@ -11371,13 +11557,13 @@
     </row>
     <row r="530">
       <c r="A530" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B530" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C530" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D530" s="8" t="s">
         <v>8</v>
@@ -11385,13 +11571,13 @@
     </row>
     <row r="531">
       <c r="A531" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B531" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C531" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D531" s="8" t="s">
         <v>8</v>
@@ -11399,13 +11585,13 @@
     </row>
     <row r="532">
       <c r="A532" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B532" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C532" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D532" s="8" t="s">
         <v>8</v>
@@ -11413,13 +11599,13 @@
     </row>
     <row r="533">
       <c r="A533" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B533" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C533" s="9">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="D533" s="8" t="s">
         <v>8</v>
@@ -11427,7 +11613,7 @@
     </row>
     <row r="534">
       <c r="A534" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B534" s="7" t="s">
         <v>5</v>
@@ -11441,7 +11627,7 @@
     </row>
     <row r="535">
       <c r="A535" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B535" s="7" t="s">
         <v>5</v>
@@ -11455,7 +11641,7 @@
     </row>
     <row r="536">
       <c r="A536" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B536" s="7" t="s">
         <v>5</v>
@@ -11469,7 +11655,7 @@
     </row>
     <row r="537">
       <c r="A537" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B537" s="7" t="s">
         <v>5</v>
@@ -11483,7 +11669,7 @@
     </row>
     <row r="538">
       <c r="A538" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B538" s="7" t="s">
         <v>5</v>
@@ -11497,7 +11683,7 @@
     </row>
     <row r="539">
       <c r="A539" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B539" s="7" t="s">
         <v>5</v>
@@ -11511,7 +11697,7 @@
     </row>
     <row r="540">
       <c r="A540" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B540" s="7" t="s">
         <v>5</v>
@@ -11525,7 +11711,7 @@
     </row>
     <row r="541">
       <c r="A541" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B541" s="7" t="s">
         <v>5</v>
@@ -11539,7 +11725,7 @@
     </row>
     <row r="542">
       <c r="A542" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B542" s="7" t="s">
         <v>5</v>
@@ -11553,7 +11739,7 @@
     </row>
     <row r="543">
       <c r="A543" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B543" s="7" t="s">
         <v>5</v>
@@ -11567,7 +11753,7 @@
     </row>
     <row r="544">
       <c r="A544" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B544" s="7" t="s">
         <v>5</v>
@@ -11581,7 +11767,7 @@
     </row>
     <row r="545">
       <c r="A545" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B545" s="7" t="s">
         <v>5</v>
@@ -11595,7 +11781,7 @@
     </row>
     <row r="546">
       <c r="A546" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B546" s="7" t="s">
         <v>5</v>
@@ -11609,7 +11795,7 @@
     </row>
     <row r="547">
       <c r="A547" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B547" s="7" t="s">
         <v>5</v>
@@ -11623,7 +11809,7 @@
     </row>
     <row r="548">
       <c r="A548" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B548" s="7" t="s">
         <v>5</v>
@@ -11637,7 +11823,7 @@
     </row>
     <row r="549">
       <c r="A549" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B549" s="7" t="s">
         <v>5</v>
@@ -11651,7 +11837,7 @@
     </row>
     <row r="550">
       <c r="A550" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B550" s="7" t="s">
         <v>5</v>
@@ -11665,7 +11851,7 @@
     </row>
     <row r="551">
       <c r="A551" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B551" s="7" t="s">
         <v>5</v>
@@ -11679,7 +11865,7 @@
     </row>
     <row r="552">
       <c r="A552" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B552" s="7" t="s">
         <v>5</v>
@@ -11693,7 +11879,7 @@
     </row>
     <row r="553">
       <c r="A553" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B553" s="7" t="s">
         <v>5</v>
@@ -11707,7 +11893,7 @@
     </row>
     <row r="554">
       <c r="A554" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B554" s="7" t="s">
         <v>5</v>
@@ -11721,7 +11907,7 @@
     </row>
     <row r="555">
       <c r="A555" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B555" s="7" t="s">
         <v>5</v>
@@ -11735,7 +11921,7 @@
     </row>
     <row r="556">
       <c r="A556" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B556" s="7" t="s">
         <v>5</v>
@@ -11749,7 +11935,7 @@
     </row>
     <row r="557">
       <c r="A557" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B557" s="7" t="s">
         <v>5</v>
@@ -11763,7 +11949,7 @@
     </row>
     <row r="558">
       <c r="A558" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B558" s="7" t="s">
         <v>5</v>
@@ -11777,7 +11963,7 @@
     </row>
     <row r="559">
       <c r="A559" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B559" s="7" t="s">
         <v>5</v>
@@ -11791,7 +11977,7 @@
     </row>
     <row r="560">
       <c r="A560" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B560" s="7" t="s">
         <v>5</v>
@@ -11805,7 +11991,7 @@
     </row>
     <row r="561">
       <c r="A561" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B561" s="7" t="s">
         <v>5</v>
@@ -11819,7 +12005,7 @@
     </row>
     <row r="562">
       <c r="A562" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B562" s="7" t="s">
         <v>5</v>
@@ -11833,7 +12019,7 @@
     </row>
     <row r="563">
       <c r="A563" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B563" s="7" t="s">
         <v>5</v>
@@ -11847,7 +12033,7 @@
     </row>
     <row r="564">
       <c r="A564" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B564" s="7" t="s">
         <v>5</v>
@@ -11861,7 +12047,7 @@
     </row>
     <row r="565">
       <c r="A565" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B565" s="7" t="s">
         <v>5</v>
@@ -11875,7 +12061,7 @@
     </row>
     <row r="566">
       <c r="A566" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B566" s="7" t="s">
         <v>5</v>
@@ -11889,7 +12075,7 @@
     </row>
     <row r="567">
       <c r="A567" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B567" s="7" t="s">
         <v>5</v>
@@ -11903,7 +12089,7 @@
     </row>
     <row r="568">
       <c r="A568" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B568" s="7" t="s">
         <v>5</v>
@@ -11917,7 +12103,7 @@
     </row>
     <row r="569">
       <c r="A569" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B569" s="7" t="s">
         <v>5</v>
@@ -11931,7 +12117,7 @@
     </row>
     <row r="570">
       <c r="A570" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B570" s="7" t="s">
         <v>5</v>
@@ -11945,7 +12131,7 @@
     </row>
     <row r="571">
       <c r="A571" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B571" s="7" t="s">
         <v>5</v>
@@ -11959,7 +12145,7 @@
     </row>
     <row r="572">
       <c r="A572" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B572" s="7" t="s">
         <v>5</v>
@@ -11973,7 +12159,7 @@
     </row>
     <row r="573">
       <c r="A573" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B573" s="7" t="s">
         <v>5</v>
@@ -11987,7 +12173,7 @@
     </row>
     <row r="574">
       <c r="A574" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B574" s="7" t="s">
         <v>5</v>
@@ -12001,7 +12187,7 @@
     </row>
     <row r="575">
       <c r="A575" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B575" s="7" t="s">
         <v>5</v>
@@ -12015,7 +12201,7 @@
     </row>
     <row r="576">
       <c r="A576" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B576" s="7" t="s">
         <v>5</v>
@@ -12029,7 +12215,7 @@
     </row>
     <row r="577">
       <c r="A577" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B577" s="7" t="s">
         <v>5</v>
@@ -12043,21 +12229,19 @@
     </row>
     <row r="578">
       <c r="A578" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B578" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C578" s="9">
-        <v>26.0</v>
-      </c>
+      <c r="C578" s="8"/>
       <c r="D578" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B579" s="7" t="s">
         <v>5</v>
@@ -12069,7 +12253,7 @@
     </row>
     <row r="580">
       <c r="A580" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B580" s="7" t="s">
         <v>5</v>
@@ -12081,7 +12265,7 @@
     </row>
     <row r="581">
       <c r="A581" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B581" s="7" t="s">
         <v>5</v>
@@ -12093,7 +12277,7 @@
     </row>
     <row r="582">
       <c r="A582" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B582" s="7" t="s">
         <v>5</v>
@@ -12105,7 +12289,7 @@
     </row>
     <row r="583">
       <c r="A583" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B583" s="7" t="s">
         <v>5</v>
@@ -12117,7 +12301,7 @@
     </row>
     <row r="584">
       <c r="A584" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B584" s="7" t="s">
         <v>5</v>
@@ -12129,7 +12313,7 @@
     </row>
     <row r="585">
       <c r="A585" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B585" s="7" t="s">
         <v>5</v>
@@ -12141,7 +12325,7 @@
     </row>
     <row r="586">
       <c r="A586" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B586" s="7" t="s">
         <v>5</v>
@@ -12153,7 +12337,7 @@
     </row>
     <row r="587">
       <c r="A587" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B587" s="7" t="s">
         <v>5</v>
@@ -12165,7 +12349,7 @@
     </row>
     <row r="588">
       <c r="A588" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B588" s="7" t="s">
         <v>5</v>
@@ -12177,7 +12361,7 @@
     </row>
     <row r="589">
       <c r="A589" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B589" s="7" t="s">
         <v>5</v>
@@ -12189,7 +12373,7 @@
     </row>
     <row r="590">
       <c r="A590" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B590" s="7" t="s">
         <v>5</v>
@@ -12201,7 +12385,7 @@
     </row>
     <row r="591">
       <c r="A591" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B591" s="7" t="s">
         <v>5</v>
@@ -12213,7 +12397,7 @@
     </row>
     <row r="592">
       <c r="A592" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B592" s="7" t="s">
         <v>5</v>
@@ -12225,7 +12409,7 @@
     </row>
     <row r="593">
       <c r="A593" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B593" s="7" t="s">
         <v>5</v>
@@ -12237,7 +12421,7 @@
     </row>
     <row r="594">
       <c r="A594" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B594" s="7" t="s">
         <v>5</v>
@@ -12249,7 +12433,7 @@
     </row>
     <row r="595">
       <c r="A595" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B595" s="7" t="s">
         <v>5</v>
@@ -12261,7 +12445,7 @@
     </row>
     <row r="596">
       <c r="A596" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B596" s="7" t="s">
         <v>5</v>
@@ -12273,7 +12457,7 @@
     </row>
     <row r="597">
       <c r="A597" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B597" s="7" t="s">
         <v>5</v>
@@ -12285,7 +12469,7 @@
     </row>
     <row r="598">
       <c r="A598" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B598" s="7" t="s">
         <v>5</v>
@@ -12297,7 +12481,7 @@
     </row>
     <row r="599">
       <c r="A599" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B599" s="7" t="s">
         <v>5</v>
@@ -12309,7 +12493,7 @@
     </row>
     <row r="600">
       <c r="A600" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B600" s="7" t="s">
         <v>5</v>
@@ -12321,7 +12505,7 @@
     </row>
     <row r="601">
       <c r="A601" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B601" s="7" t="s">
         <v>5</v>
@@ -12333,7 +12517,7 @@
     </row>
     <row r="602">
       <c r="A602" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B602" s="7" t="s">
         <v>5</v>
@@ -12345,7 +12529,7 @@
     </row>
     <row r="603">
       <c r="A603" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B603" s="7" t="s">
         <v>5</v>
@@ -12357,7 +12541,7 @@
     </row>
     <row r="604">
       <c r="A604" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B604" s="7" t="s">
         <v>5</v>
@@ -12369,7 +12553,7 @@
     </row>
     <row r="605">
       <c r="A605" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B605" s="7" t="s">
         <v>5</v>
@@ -12381,7 +12565,7 @@
     </row>
     <row r="606">
       <c r="A606" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B606" s="7" t="s">
         <v>5</v>
@@ -12393,7 +12577,7 @@
     </row>
     <row r="607">
       <c r="A607" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B607" s="7" t="s">
         <v>5</v>
@@ -12405,7 +12589,7 @@
     </row>
     <row r="608">
       <c r="A608" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B608" s="7" t="s">
         <v>5</v>
@@ -12417,7 +12601,7 @@
     </row>
     <row r="609">
       <c r="A609" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B609" s="7" t="s">
         <v>5</v>
@@ -12429,7 +12613,7 @@
     </row>
     <row r="610">
       <c r="A610" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B610" s="7" t="s">
         <v>5</v>
@@ -12441,7 +12625,7 @@
     </row>
     <row r="611">
       <c r="A611" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B611" s="7" t="s">
         <v>5</v>
@@ -12453,7 +12637,7 @@
     </row>
     <row r="612">
       <c r="A612" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B612" s="7" t="s">
         <v>5</v>
@@ -12465,7 +12649,7 @@
     </row>
     <row r="613">
       <c r="A613" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B613" s="7" t="s">
         <v>5</v>
@@ -12477,7 +12661,7 @@
     </row>
     <row r="614">
       <c r="A614" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B614" s="7" t="s">
         <v>5</v>
@@ -12489,7 +12673,7 @@
     </row>
     <row r="615">
       <c r="A615" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B615" s="7" t="s">
         <v>5</v>
@@ -12501,25 +12685,13 @@
     </row>
     <row r="616">
       <c r="A616" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B616" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C616" s="8"/>
       <c r="D616" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="B617" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C617" s="8"/>
-      <c r="D617" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12555,7 +12727,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -12582,13 +12754,13 @@
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>8</v>
@@ -12620,19 +12792,19 @@
     </row>
     <row r="3">
       <c r="A3" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>625</v>
-      </c>
       <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -12658,19 +12830,19 @@
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>628</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>627</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -12696,13 +12868,13 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>8</v>
@@ -12734,13 +12906,13 @@
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>8</v>
@@ -12772,13 +12944,13 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>8</v>
@@ -12810,13 +12982,13 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>8</v>
@@ -12848,14 +13020,14 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -12882,13 +13054,13 @@
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>8</v>
@@ -12920,13 +13092,13 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>8</v>
@@ -12958,13 +13130,13 @@
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>8</v>
@@ -12996,13 +13168,13 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>8</v>
@@ -13034,13 +13206,13 @@
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>8</v>
@@ -13072,13 +13244,13 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>8</v>
@@ -13110,13 +13282,13 @@
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>8</v>
@@ -13148,13 +13320,13 @@
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>8</v>
@@ -13186,13 +13358,13 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>8</v>
@@ -13224,13 +13396,13 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>8</v>
@@ -13262,13 +13434,13 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>8</v>
@@ -13300,13 +13472,13 @@
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>8</v>
@@ -13338,13 +13510,13 @@
     </row>
     <row r="22">
       <c r="A22" s="11" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>8</v>
@@ -13376,13 +13548,13 @@
     </row>
     <row r="23">
       <c r="A23" s="11" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>8</v>
@@ -13414,13 +13586,13 @@
     </row>
     <row r="24">
       <c r="A24" s="11" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>8</v>
@@ -13452,13 +13624,13 @@
     </row>
     <row r="25">
       <c r="A25" s="11" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>8</v>
@@ -13490,7 +13662,7 @@
     </row>
     <row r="26">
       <c r="A26" s="11" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>5</v>
@@ -13528,7 +13700,7 @@
     </row>
     <row r="27">
       <c r="A27" s="11" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>5</v>
@@ -13562,7 +13734,7 @@
     </row>
     <row r="28">
       <c r="A28" s="11" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>5</v>
@@ -13596,14 +13768,14 @@
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="14" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -13630,7 +13802,7 @@
     </row>
     <row r="30">
       <c r="A30" s="11" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>5</v>
@@ -13668,7 +13840,7 @@
     </row>
     <row r="31">
       <c r="A31" s="11" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>5</v>
@@ -13706,7 +13878,7 @@
     </row>
     <row r="32">
       <c r="A32" s="11" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>5</v>
@@ -13744,7 +13916,7 @@
     </row>
     <row r="33">
       <c r="A33" s="11" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>5</v>
@@ -13782,7 +13954,7 @@
     </row>
     <row r="34">
       <c r="A34" s="11" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>5</v>
@@ -13820,7 +13992,7 @@
     </row>
     <row r="35">
       <c r="A35" s="11" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>5</v>
@@ -13856,7 +14028,7 @@
     </row>
     <row r="36">
       <c r="A36" s="11" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>5</v>
@@ -13894,7 +14066,7 @@
     </row>
     <row r="37">
       <c r="A37" s="11" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>5</v>
@@ -13932,7 +14104,7 @@
     </row>
     <row r="38">
       <c r="A38" s="11" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>5</v>
@@ -13970,7 +14142,7 @@
     </row>
     <row r="39">
       <c r="A39" s="11" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>5</v>
@@ -14008,7 +14180,7 @@
     </row>
     <row r="40">
       <c r="A40" s="11" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>5</v>
@@ -14046,7 +14218,7 @@
     </row>
     <row r="41">
       <c r="A41" s="11" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>5</v>
@@ -14080,7 +14252,7 @@
     </row>
     <row r="42">
       <c r="A42" s="11" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>5</v>
@@ -14114,7 +14286,7 @@
     </row>
     <row r="43">
       <c r="A43" s="11" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>5</v>
@@ -14148,7 +14320,7 @@
     </row>
     <row r="44">
       <c r="A44" s="11" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>5</v>
@@ -14182,7 +14354,7 @@
     </row>
     <row r="45">
       <c r="A45" s="11" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>5</v>
@@ -14216,7 +14388,7 @@
     </row>
     <row r="46">
       <c r="A46" s="11" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>5</v>
@@ -14250,7 +14422,7 @@
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>5</v>
@@ -14284,7 +14456,7 @@
     </row>
     <row r="48">
       <c r="A48" s="11" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>5</v>
@@ -14318,7 +14490,7 @@
     </row>
     <row r="49">
       <c r="A49" s="11" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>5</v>
@@ -14352,7 +14524,7 @@
     </row>
     <row r="50">
       <c r="A50" s="11" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>5</v>
@@ -14386,7 +14558,7 @@
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>5</v>
@@ -14420,7 +14592,7 @@
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>5</v>
@@ -14454,7 +14626,7 @@
     </row>
     <row r="53">
       <c r="A53" s="11" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>5</v>
@@ -14488,7 +14660,7 @@
     </row>
     <row r="54">
       <c r="A54" s="11" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>5</v>
@@ -14522,7 +14694,7 @@
     </row>
     <row r="55">
       <c r="A55" s="11" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>5</v>
@@ -14556,7 +14728,7 @@
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>5</v>
@@ -14590,7 +14762,7 @@
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>5</v>
@@ -14624,7 +14796,7 @@
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>5</v>
@@ -14658,7 +14830,7 @@
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>5</v>
@@ -14692,7 +14864,7 @@
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>5</v>
@@ -14726,7 +14898,7 @@
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>5</v>
@@ -14760,7 +14932,7 @@
     </row>
     <row r="62">
       <c r="A62" s="11" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>5</v>
@@ -14794,7 +14966,7 @@
     </row>
     <row r="63">
       <c r="A63" s="11" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>5</v>
@@ -14828,7 +15000,7 @@
     </row>
     <row r="64">
       <c r="A64" s="11" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>5</v>
@@ -14862,7 +15034,7 @@
     </row>
     <row r="65">
       <c r="A65" s="11" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>5</v>
@@ -14896,7 +15068,7 @@
     </row>
     <row r="66">
       <c r="A66" s="11" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>5</v>
@@ -14930,7 +15102,7 @@
     </row>
     <row r="67">
       <c r="A67" s="11" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>5</v>
@@ -14964,7 +15136,7 @@
     </row>
     <row r="68">
       <c r="A68" s="11" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>5</v>
@@ -14998,7 +15170,7 @@
     </row>
     <row r="69">
       <c r="A69" s="11" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>5</v>
@@ -15032,7 +15204,7 @@
     </row>
     <row r="70">
       <c r="A70" s="11" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>5</v>
@@ -15066,7 +15238,7 @@
     </row>
     <row r="71">
       <c r="A71" s="11" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>5</v>
@@ -15100,7 +15272,7 @@
     </row>
     <row r="72">
       <c r="A72" s="11" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>5</v>
@@ -15134,7 +15306,7 @@
     </row>
     <row r="73">
       <c r="A73" s="11" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>5</v>
@@ -15168,7 +15340,7 @@
     </row>
     <row r="74">
       <c r="A74" s="11" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>5</v>
@@ -15202,7 +15374,7 @@
     </row>
     <row r="75">
       <c r="A75" s="11" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>5</v>
@@ -15236,7 +15408,7 @@
     </row>
     <row r="76">
       <c r="A76" s="11" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>5</v>
@@ -15270,7 +15442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="11" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>5</v>
@@ -15304,7 +15476,7 @@
     </row>
     <row r="78">
       <c r="A78" s="11" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>5</v>
@@ -15338,7 +15510,7 @@
     </row>
     <row r="79">
       <c r="A79" s="11" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>5</v>
@@ -15372,7 +15544,7 @@
     </row>
     <row r="80">
       <c r="A80" s="11" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>5</v>
@@ -15406,7 +15578,7 @@
     </row>
     <row r="81">
       <c r="A81" s="11" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>5</v>
@@ -15440,7 +15612,7 @@
     </row>
     <row r="82">
       <c r="A82" s="11" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>5</v>
@@ -15474,7 +15646,7 @@
     </row>
     <row r="83">
       <c r="A83" s="11" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>5</v>
@@ -15508,7 +15680,7 @@
     </row>
     <row r="84">
       <c r="A84" s="11" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>5</v>
@@ -15542,7 +15714,7 @@
     </row>
     <row r="85">
       <c r="A85" s="11" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>5</v>
@@ -15576,7 +15748,7 @@
     </row>
     <row r="86">
       <c r="A86" s="11" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>5</v>
@@ -15610,7 +15782,7 @@
     </row>
     <row r="87">
       <c r="A87" s="11" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>5</v>
@@ -15644,7 +15816,7 @@
     </row>
     <row r="88">
       <c r="A88" s="11" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>5</v>
@@ -15678,7 +15850,7 @@
     </row>
     <row r="89">
       <c r="A89" s="11" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>5</v>
@@ -15712,7 +15884,7 @@
     </row>
     <row r="90">
       <c r="A90" s="11" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>5</v>
@@ -15746,7 +15918,7 @@
     </row>
     <row r="91">
       <c r="A91" s="11" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>5</v>
@@ -15780,7 +15952,7 @@
     </row>
     <row r="92">
       <c r="A92" s="11" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>5</v>
@@ -15814,7 +15986,7 @@
     </row>
     <row r="93">
       <c r="A93" s="11" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>5</v>
@@ -15848,7 +16020,7 @@
     </row>
     <row r="94">
       <c r="A94" s="11" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>5</v>
@@ -15882,7 +16054,7 @@
     </row>
     <row r="95">
       <c r="A95" s="11" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>5</v>
@@ -15916,7 +16088,7 @@
     </row>
     <row r="96">
       <c r="A96" s="11" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>5</v>
@@ -15950,7 +16122,7 @@
     </row>
     <row r="97">
       <c r="A97" s="11" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>5</v>
@@ -15984,7 +16156,7 @@
     </row>
     <row r="98">
       <c r="A98" s="11" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>5</v>
@@ -16018,7 +16190,7 @@
     </row>
     <row r="99">
       <c r="A99" s="11" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>5</v>
@@ -16052,7 +16224,7 @@
     </row>
     <row r="100">
       <c r="A100" s="11" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>5</v>
@@ -16086,7 +16258,7 @@
     </row>
     <row r="101">
       <c r="A101" s="11" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>5</v>
@@ -16120,7 +16292,7 @@
     </row>
     <row r="102">
       <c r="A102" s="11" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>5</v>
@@ -16154,7 +16326,7 @@
     </row>
     <row r="103">
       <c r="A103" s="11" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>5</v>
@@ -16188,7 +16360,7 @@
     </row>
     <row r="104">
       <c r="A104" s="11" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>5</v>
@@ -16222,7 +16394,7 @@
     </row>
     <row r="105">
       <c r="A105" s="11" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>5</v>
@@ -16256,7 +16428,7 @@
     </row>
     <row r="106">
       <c r="A106" s="11" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>5</v>
@@ -16290,7 +16462,7 @@
     </row>
     <row r="107">
       <c r="A107" s="11" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>5</v>
@@ -16324,7 +16496,7 @@
     </row>
     <row r="108">
       <c r="A108" s="11" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>5</v>
@@ -16358,7 +16530,7 @@
     </row>
     <row r="109">
       <c r="A109" s="11" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>5</v>
@@ -16392,7 +16564,7 @@
     </row>
     <row r="110">
       <c r="A110" s="11" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>5</v>
@@ -16426,7 +16598,7 @@
     </row>
     <row r="111">
       <c r="A111" s="11" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>5</v>
@@ -16460,7 +16632,7 @@
     </row>
     <row r="112">
       <c r="A112" s="11" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>5</v>
@@ -16494,7 +16666,7 @@
     </row>
     <row r="113">
       <c r="A113" s="11" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>5</v>
@@ -16528,7 +16700,7 @@
     </row>
     <row r="114">
       <c r="A114" s="11" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>5</v>
@@ -16562,14 +16734,14 @@
     </row>
     <row r="115">
       <c r="A115" s="11" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C115" s="12"/>
       <c r="D115" s="11" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
@@ -16596,7 +16768,7 @@
     </row>
     <row r="116">
       <c r="A116" s="11" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>5</v>
@@ -16630,7 +16802,7 @@
     </row>
     <row r="117">
       <c r="A117" s="11" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>5</v>
@@ -16664,7 +16836,7 @@
     </row>
     <row r="118">
       <c r="A118" s="11" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>5</v>
@@ -16698,7 +16870,7 @@
     </row>
     <row r="119">
       <c r="A119" s="11" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>5</v>
@@ -16732,7 +16904,7 @@
     </row>
     <row r="120">
       <c r="A120" s="11" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>5</v>
@@ -16766,7 +16938,7 @@
     </row>
     <row r="121">
       <c r="A121" s="11" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>5</v>
@@ -16800,7 +16972,7 @@
     </row>
     <row r="122">
       <c r="A122" s="11" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>5</v>
@@ -16834,7 +17006,7 @@
     </row>
     <row r="123">
       <c r="A123" s="11" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>5</v>
@@ -16868,7 +17040,7 @@
     </row>
     <row r="124">
       <c r="A124" s="11" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>5</v>
@@ -16902,7 +17074,7 @@
     </row>
     <row r="125">
       <c r="A125" s="11" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B125" s="11" t="s">
         <v>5</v>
@@ -16936,14 +17108,14 @@
     </row>
     <row r="126">
       <c r="A126" s="11" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C126" s="12"/>
       <c r="D126" s="11" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
@@ -16970,7 +17142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="11" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B127" s="11" t="s">
         <v>5</v>
@@ -41214,57 +41386,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
+        <v>760</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>759</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>757</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
